--- a/parameter_files/v4/sigmas.xlsx
+++ b/parameter_files/v4/sigmas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DDDF2B-6A9D-40F7-9BA9-14A22BCD3930}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5FB2F20-670F-4DBC-B713-1601E1690D53}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,15 +1219,16 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
     <col min="26" max="26" width="18.7265625" customWidth="1"/>
     <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
@@ -1345,9 +1346,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -1390,10 +1395,12 @@
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1402,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="4"/>
@@ -1415,7 +1422,9 @@
       <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AJ3" s="5"/>
+      <c r="AJ3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
@@ -1443,22 +1452,26 @@
       <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AJ4" s="5"/>
+      <c r="AJ4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="4"/>
@@ -1468,7 +1481,9 @@
       <c r="AG5">
         <v>1</v>
       </c>
-      <c r="AJ5" s="5"/>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
@@ -1493,7 +1508,9 @@
       <c r="AG6">
         <v>1</v>
       </c>
-      <c r="AJ6" s="5"/>
+      <c r="AJ6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
@@ -1546,7 +1563,6 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
@@ -1675,13 +1691,13 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>

--- a/parameter_files/v4/sigmas.xlsx
+++ b/parameter_files/v4/sigmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5FB2F20-670F-4DBC-B713-1601E1690D53}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49611E69-E15C-4D07-9235-748E7844B469}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -917,6 +917,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,10 +1223,10 @@
   <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,11 +1351,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1396,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4">
@@ -1430,7 +1434,9 @@
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4">
         <v>2</v>
@@ -1461,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4">
@@ -1489,7 +1495,9 @@
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="4">
         <v>2</v>
@@ -1684,6 +1692,9 @@
       <c r="AA14">
         <v>2</v>
       </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18" t="s">

--- a/parameter_files/v4/sigmas.xlsx
+++ b/parameter_files/v4/sigmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49611E69-E15C-4D07-9235-748E7844B469}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F66EBB2-DA89-476A-9376-0BF0B1414512}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -753,17 +753,6 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -811,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -850,15 +839,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1217,7 @@
     <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1377,23 +1357,33 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2">
         <v>2</v>
       </c>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
       <c r="AD2" s="2">
         <v>2</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
@@ -1434,9 +1424,7 @@
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4">
         <v>2</v>
@@ -1495,9 +1483,7 @@
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4">
         <v>2</v>
@@ -1731,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>34</v>
       </c>
@@ -1746,8 +1732,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -1778,8 +1764,8 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4"/>
@@ -1793,8 +1779,8 @@
       </c>
       <c r="AJ19" s="5"/>
     </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="4"/>
@@ -1802,8 +1788,8 @@
       <c r="R20" s="4"/>
       <c r="AJ20" s="5"/>
     </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="4"/>
@@ -1817,8 +1803,8 @@
       </c>
       <c r="AJ21" s="5"/>
     </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4"/>
@@ -1838,7 +1824,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4"/>
@@ -1851,12 +1837,12 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>13</v>
+      <c r="A25" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25">
@@ -1885,25 +1871,25 @@
       <c r="AJ25" s="5"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>14</v>
+      <c r="A26" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="4"/>
       <c r="H26" s="5"/>
       <c r="R26" s="4"/>
       <c r="AJ26" s="5"/>
     </row>
-    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
-        <v>15</v>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="4"/>
       <c r="H27" s="5"/>
       <c r="R27" s="4"/>
       <c r="AJ27" s="5"/>
     </row>
-    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="4"/>
@@ -1923,8 +1909,8 @@
       <c r="R28" s="4"/>
       <c r="AJ28" s="5"/>
     </row>
-    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="4"/>
@@ -1932,8 +1918,8 @@
       <c r="R29" s="4"/>
       <c r="AJ29" s="5"/>
     </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="4"/>
@@ -1941,8 +1927,8 @@
       <c r="R30" s="4"/>
       <c r="AJ30" s="5"/>
     </row>
-    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="4"/>
@@ -1950,8 +1936,8 @@
       <c r="R31" s="4"/>
       <c r="AJ31" s="5"/>
     </row>
-    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="4"/>
@@ -1962,8 +1948,8 @@
       </c>
       <c r="AJ32" s="5"/>
     </row>
-    <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="4"/>
@@ -1983,8 +1969,8 @@
       </c>
       <c r="AJ33" s="5"/>
     </row>
-    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="4"/>
@@ -1998,8 +1984,8 @@
       <c r="R34" s="4"/>
       <c r="AJ34" s="5"/>
     </row>
-    <row r="35" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="4">
@@ -2014,8 +2000,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="6"/>
@@ -2046,9 +2032,6 @@
       </c>
       <c r="AJ36" s="8"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parameter_files/v4/sigmas.xlsx
+++ b/parameter_files/v4/sigmas.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F66EBB2-DA89-476A-9376-0BF0B1414512}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B69A4489-98D2-4CC5-9B56-2BCC89E37B00}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1203,10 +1216,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,11 +1344,11 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1390,13 +1403,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3">
         <v>2</v>
       </c>
       <c r="O3">
@@ -1455,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="4">
@@ -1597,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5"/>
       <c r="O10">
@@ -1624,6 +1634,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1691,13 +1704,13 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15">
@@ -1848,7 +1861,13 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
       <c r="H25" s="5"/>
@@ -1894,10 +1913,16 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
       </c>
       <c r="H28" s="5"/>
       <c r="J28">
